--- a/code/exportADOC_2022-2023.xlsx
+++ b/code/exportADOC_2022-2023.xlsx
@@ -2538,7 +2538,7 @@
   </sheetPr>
   <dimension ref="A1:BR274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y272" activeCellId="0" sqref="Y272"/>
     </sheetView>
   </sheetViews>
@@ -40511,7 +40511,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
